--- a/04-Testing/NaCl NIOSH Test Results 13 Apr 2020 WNg et al.xlsx
+++ b/04-Testing/NaCl NIOSH Test Results 13 Apr 2020 WNg et al.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wckng/Documents/GitHub/Reusable-N95-Project/04-Testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45958C13-265F-E54C-BB1E-5CB7ABC086E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFB4486-0628-8D43-97EF-28D103459859}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{2B97CAC9-7827-284E-8A55-0F6A34A68828}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>NaCl NIOSH Testing 13 April 11am to 3pm at James Scott Lab</t>
   </si>
@@ -52,6 +53,9 @@
   </si>
   <si>
     <t>Attendees: Andrew Syrett, Vahid Anwari, Will Ng, Matt Ratto</t>
+  </si>
+  <si>
+    <t>Problems</t>
   </si>
 </sst>
 </file>
@@ -412,25 +416,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D5A731-0550-CF4C-A035-1CCCFCB236F8}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -443,28 +447,29 @@
       <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4</v>
       </c>

--- a/04-Testing/NaCl NIOSH Test Results 13 Apr 2020 WNg et al.xlsx
+++ b/04-Testing/NaCl NIOSH Test Results 13 Apr 2020 WNg et al.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wckng/Documents/GitHub/Reusable-N95-Project/04-Testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFB4486-0628-8D43-97EF-28D103459859}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FEC18F-812A-1648-946D-96688C376CBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{2B97CAC9-7827-284E-8A55-0F6A34A68828}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>NaCl NIOSH Testing 13 April 11am to 3pm at James Scott Lab</t>
   </si>
@@ -56,6 +56,39 @@
   </si>
   <si>
     <t>Problems</t>
+  </si>
+  <si>
+    <t>NIH Medium</t>
+  </si>
+  <si>
+    <t>Dragon 30 blue</t>
+  </si>
+  <si>
+    <t>5N11 outer middle layers</t>
+  </si>
+  <si>
+    <t>Dummy doesn't fit or stick</t>
+  </si>
+  <si>
+    <t>Aluminum tape doesn't stick</t>
+  </si>
+  <si>
+    <t>Focus is filtration</t>
+  </si>
+  <si>
+    <t>Woodbridge 5-ply</t>
+  </si>
+  <si>
+    <t>Woodbridge 4-ply</t>
+  </si>
+  <si>
+    <t>Clip slight loose with extra filter height</t>
+  </si>
+  <si>
+    <t>ROXON RX1568</t>
+  </si>
+  <si>
+    <t>H300 2-ply</t>
   </si>
 </sst>
 </file>
@@ -416,13 +449,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D5A731-0550-CF4C-A035-1CCCFCB236F8}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -458,20 +498,77 @@
       <c r="A6">
         <v>1</v>
       </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>2</v>
       </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>3</v>
+      <c r="D10" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
